--- a/data/trans_dic/P36$cafe-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,86; 93,36</t>
+          <t>88,02; 93,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,79; 92,96</t>
+          <t>86,9; 93,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,19; 96,2</t>
+          <t>91,28; 96,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86,92; 93,88</t>
+          <t>87,11; 93,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,94; 96,44</t>
+          <t>90,78; 96,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,25; 95,72</t>
+          <t>90,38; 95,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,73; 92,87</t>
+          <t>88,54; 92,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,74; 93,93</t>
+          <t>89,32; 93,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,77; 95,41</t>
+          <t>91,8; 95,31</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,13; 91,92</t>
+          <t>85,39; 92,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,77; 97,45</t>
+          <t>92,66; 97,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,1; 96,15</t>
+          <t>91,23; 96,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,15; 92,33</t>
+          <t>85,83; 92,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,39; 97,4</t>
+          <t>92,63; 97,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,45; 97,01</t>
+          <t>92,5; 96,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,64; 91,4</t>
+          <t>86,78; 91,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,54; 96,89</t>
+          <t>93,28; 96,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,51; 95,87</t>
+          <t>92,73; 95,95</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,89; 93,1</t>
+          <t>87,93; 93,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,07; 94,33</t>
+          <t>89,97; 94,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,83; 93,43</t>
+          <t>88,04; 93,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,3; 93,58</t>
+          <t>84,23; 93,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,15; 95,32</t>
+          <t>88,79; 95,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,51; 96,9</t>
+          <t>89,41; 96,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 92,61</t>
+          <t>87,87; 92,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,42; 94,07</t>
+          <t>90,45; 94,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,19; 93,32</t>
+          <t>89,39; 93,52</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,17; 94,08</t>
+          <t>91,18; 94,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,21; 92,64</t>
+          <t>88,97; 92,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,34; 92,67</t>
+          <t>89,33; 92,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,32; 92,6</t>
+          <t>88,23; 92,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,76; 93,75</t>
+          <t>89,39; 93,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,59; 94,16</t>
+          <t>90,61; 94,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,5; 93,11</t>
+          <t>90,71; 93,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,96; 92,61</t>
+          <t>89,84; 92,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,51; 92,84</t>
+          <t>90,43; 92,95</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,01; 93,45</t>
+          <t>87,03; 93,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,94</t>
+          <t>89,38; 94,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,39; 91,53</t>
+          <t>86,42; 91,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,82; 96,0</t>
+          <t>91,93; 95,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,79; 96,9</t>
+          <t>93,67; 96,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,13; 95,65</t>
+          <t>92,14; 95,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,86; 94,22</t>
+          <t>90,76; 94,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,22</t>
+          <t>92,63; 95,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,07; 93,26</t>
+          <t>90,26; 93,23</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,37; 95,06</t>
+          <t>89,21; 95,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,72; 90,83</t>
+          <t>82,72; 90,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,33; 88,64</t>
+          <t>79,36; 88,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,63; 93,5</t>
+          <t>90,58; 93,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,5; 94,61</t>
+          <t>91,12; 94,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,02; 95,02</t>
+          <t>92,16; 95,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,81; 93,49</t>
+          <t>90,86; 93,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,32; 93,27</t>
+          <t>90,18; 93,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,06; 93,16</t>
+          <t>90,19; 93,07</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,4; 92,39</t>
+          <t>90,42; 92,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90,56; 92,56</t>
+          <t>90,49; 92,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,68; 91,8</t>
+          <t>89,77; 91,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,63; 92,56</t>
+          <t>90,54; 92,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,75; 94,41</t>
+          <t>92,79; 94,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,71; 94,4</t>
+          <t>92,74; 94,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,83; 92,22</t>
+          <t>90,82; 92,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,97; 93,2</t>
+          <t>91,89; 93,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,59; 92,87</t>
+          <t>91,58; 92,88</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, café, leche, té, chololate, yogurt,...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>429778</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>394923</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>403209</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>278477</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>294747</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>324394</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>708256</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>689670</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>727603</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>416216; 440436</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>379932; 407735</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>391688; 412624</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>267154; 287892</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>284397; 302187</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>313683; 332394</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>690260; 723636</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>670314; 703037</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>712490; 739743</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>324890</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>397997</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>354618</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>331874</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>322569</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>352557</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>656765</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>720567</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>707175</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>311812; 336119</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>386166; 405700</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>344131; 363360</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>318262; 342105</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>313099; 329315</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>343312; 359403</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>638693; 672533</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>704075; 731222</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>693976; 718055</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>490767</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>579519</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>473047</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>149891</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>240583</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>156061</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>640658</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>820102</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>629109</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>475173; 503425</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>564613; 591284</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>458540; 485776</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>141330; 156850</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>230968; 247891</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>148528; 161127</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>622239; 656039</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>802867; 834995</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>614073; 642415</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1761</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1146359</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1054302</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1047071</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>646027</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>702714</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>763965</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1792386</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1757016</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1811036</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1127257; 1163632</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1030235; 1073338</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1025994; 1063685</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>629338; 660688</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>683546; 717705</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>748318; 778247</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1768564; 1815425</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1727160; 1779586</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1785450; 1835161</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>317612</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>468254</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>551083</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>533617</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>724186</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>694139</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>851229</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1192440</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1245222</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>305102; 328421</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>455564; 480167</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>534862; 565471</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>521016; 543729</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>710527; 734190</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>680218; 705419</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>832564; 865654</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1174753; 1208693</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1224978; 1265238</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1422</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>275896</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>231955</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>241942</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1151060</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1032831</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1012295</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1426955</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1264786</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1254237</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>266023; 283617</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>220758; 242117</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>227870; 253733</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1131105; 1168033</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1010880; 1047210</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>995261; 1026089</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1405555; 1447345</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1241025; 1283008</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1232974; 1272346</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2928</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3074</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5941</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6006</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6032</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2985304</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3126952</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3070970</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3090946</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3317630</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3303411</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6076249</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6444581</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6374381</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2950955; 3014148</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3091252; 3161230</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3035821; 3103704</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3054980; 3120320</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3288389; 3348646</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3272259; 3331257</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6028291; 6118873</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6395657; 6487437</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6328533; 6418096</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36$cafe-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
